--- a/models/nmf_tf8.xlsx
+++ b/models/nmf_tf8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,37 +441,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Topic 0 weights</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Topic 1 words</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 1 weights</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Topic 2 words</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 2 weights</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Topic 3 words</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 3 weights</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Topic 4 words</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 4 weights</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Topic 5 words</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 5 weights</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Topic 6 words</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 6 weights</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Topic 7 words</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Topic 7 weights</t>
         </is>
       </c>
     </row>
@@ -486,37 +526,77 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>jesus</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>fine</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>heart</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>6.5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>god</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
         <is>
           <t>practice</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>life</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>5.4</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>character</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>5.7</t>
         </is>
       </c>
     </row>
@@ -531,37 +611,77 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>memory</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>violence</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>red</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5.9</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>universe</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>teacher</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>work</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>series</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>3.3</t>
         </is>
       </c>
     </row>
@@ -576,37 +696,77 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>word</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>social</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>way</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>life</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>chapter</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>thing</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>end</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1.7</t>
         </is>
       </c>
     </row>
@@ -621,37 +781,77 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>god</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
         <is>
           <t>political</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>fantasy</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0.7</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>science</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1.8</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>work</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>japanese</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>novel</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>1.4</t>
         </is>
       </c>
     </row>
@@ -666,37 +866,77 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>man</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
         <is>
           <t>world</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>plot</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>law</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>education</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1.9</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>way</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -711,37 +951,77 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>heal</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>government</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>help</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>0.5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>sin</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>science</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1.7</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
         <is>
           <t>author</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>plot</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -756,37 +1036,77 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>john</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>religious</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>christ</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>school</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>way</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>reader</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>1.0</t>
         </is>
       </c>
     </row>
@@ -801,37 +1121,77 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>imagination</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>religion</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>previous</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>evidence</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>research</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
         <is>
           <t>war</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>page</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>0.9</t>
         </is>
       </c>
     </row>
@@ -846,37 +1206,77 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>1.6</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>fresh</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.4</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>author</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>end</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>world</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>exercise</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>live</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>thing</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0.9</t>
         </is>
       </c>
     </row>
@@ -891,37 +1291,77 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>1.5</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>false</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>country</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>learn</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0.4</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>scientific</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.8</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>new</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>cook</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0.9</t>
         </is>
       </c>
     </row>
